--- a/biology/Médecine/Théodore_Perrin_(médecin)/Théodore_Perrin_(médecin).xlsx
+++ b/biology/Médecine/Théodore_Perrin_(médecin)/Théodore_Perrin_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Perrin_(m%C3%A9decin)</t>
+          <t>Théodore_Perrin_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Théodore Perrin, né le 2 octobre 1795 (10 vendémiaire an IV)[1] à Lyon et mort le 9 novembre 1880 à Vieu (Ain)[2] est un médecin des hôpitaux à Lyon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théodore Perrin, né le 2 octobre 1795 (10 vendémiaire an IV) à Lyon et mort le 9 novembre 1880 à Vieu (Ain) est un médecin des hôpitaux à Lyon.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Perrin_(m%C3%A9decin)</t>
+          <t>Théodore_Perrin_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le père de Théodore Perrin est un marchand commissionnaire[3]. Son frère  Louis (né en 1799-1865) sera  imprimeur, sa sœur Adelaïde Perrin (1789-1838) sera  la fondatrice d'un hospice pour jeunes filles incurables, à Lyon.
-Théodore est reçu interne des hôpitaux le 4 septembre 1816[4]. Son internat terminé, il part à Paris suivre les cours de la Faculté de Paris, où il suit l'enseignement de François Broussais. Le 9 juin 1821 il soutient sa thèse, consacrée aux Sécrétions considérées sous le rapport physiologique et comme signes de maladies. Il complète sa formation en allant à Montpellier où il est influencé  par Jacques Lordat, professeur à la faculté de médecine. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le père de Théodore Perrin est un marchand commissionnaire. Son frère  Louis (né en 1799-1865) sera  imprimeur, sa sœur Adelaïde Perrin (1789-1838) sera  la fondatrice d'un hospice pour jeunes filles incurables, à Lyon.
+Théodore est reçu interne des hôpitaux le 4 septembre 1816. Son internat terminé, il part à Paris suivre les cours de la Faculté de Paris, où il suit l'enseignement de François Broussais. Le 9 juin 1821 il soutient sa thèse, consacrée aux Sécrétions considérées sous le rapport physiologique et comme signes de maladies. Il complète sa formation en allant à Montpellier où il est influencé  par Jacques Lordat, professeur à la faculté de médecine. 
 Il se marie le 25 juillet 1832 à Lyon, avec Horacie Cozon  avec qui il aura 9 enfants dont  Louis Jean Sainte-Marie (1835-1917), architecte qui terminera la construction de la basilique de Fourvière.
 En 1833, il est nommé médecin suppléant des prisons, et, en 1839, médecin titulaire, en remplacement de M. Brachet.
-Théodore Perrin est le médecin de l’institut des sourds-muets de Lyon. Il publie un ouvrage dans lequel « à rebours des principaux auteurs de son temps (Sicard, Bonald, Arnman, l’abbé Montaigne, Itard), Perrin démontre que le sourd-muet, même non instruit est intelligent, qu’il a le sens du bien et du mal, et qu’il est tout à fait capable de gouverner sa vie. La question se posait à l’époque et elle était fort discutée »[5].
-Il est le médecin de  l'hospice des incurables d'Ainay, fondé par sa  sœur Adelaïde et présente un rapport à la Société de médecine de Lyon. Il montre que  « grâce au christianisme, nous sommes loin de cette époque où la médecine grecque proclamait comme un axiôme : « que les maladies incurables ne regardent pas la médecine, et ne font point partie du domaine de l'art de guérir. » On comprend mieux aujourd'hui que les hommes étant tous, à quelques égards, faibles et infirmes, ont tous indistinctement droit à la compassion ; on n'ose plus, comme les Spartiates, sacrifier les nouveau-nés atteints de difformités ; on a cessé de traiter les aliénés comme des criminels ; les incurables aussi ont leurs lieux de refuge, pieux témoignages de la fraternité humaine ; visible enseignement qui doit rappeler sans cesse que, là où la science perd son efficacité, la pitié peut encore continuer ses soins et ses consolations. »[6]
-Par plusieurs écrits il défend l'allaitement maternel[7] : « la brochure de M. Perrin est pleine d'intérêt. Après le plaidoyer éloquent de Jean-Jacques, en faveur de l'allaitement maternel, il semblait difficile d'aborder le même sujet avec quelque succès : c'est ce qu'a fait cependant M. Perrin ; mais il eut soin pour cela d'éclairer le champ de la physiologie par les lumières du catholicisme ».
-Théodore Perrin est vice-président de la Société de médecine à Lyon. En 1867, il est nommé président de l'Académie des sciences, belles lettres et arts de Lyon[8], pour la classe sciences[9].
+Théodore Perrin est le médecin de l’institut des sourds-muets de Lyon. Il publie un ouvrage dans lequel « à rebours des principaux auteurs de son temps (Sicard, Bonald, Arnman, l’abbé Montaigne, Itard), Perrin démontre que le sourd-muet, même non instruit est intelligent, qu’il a le sens du bien et du mal, et qu’il est tout à fait capable de gouverner sa vie. La question se posait à l’époque et elle était fort discutée ».
+Il est le médecin de  l'hospice des incurables d'Ainay, fondé par sa  sœur Adelaïde et présente un rapport à la Société de médecine de Lyon. Il montre que  « grâce au christianisme, nous sommes loin de cette époque où la médecine grecque proclamait comme un axiôme : « que les maladies incurables ne regardent pas la médecine, et ne font point partie du domaine de l'art de guérir. » On comprend mieux aujourd'hui que les hommes étant tous, à quelques égards, faibles et infirmes, ont tous indistinctement droit à la compassion ; on n'ose plus, comme les Spartiates, sacrifier les nouveau-nés atteints de difformités ; on a cessé de traiter les aliénés comme des criminels ; les incurables aussi ont leurs lieux de refuge, pieux témoignages de la fraternité humaine ; visible enseignement qui doit rappeler sans cesse que, là où la science perd son efficacité, la pitié peut encore continuer ses soins et ses consolations. »
+Par plusieurs écrits il défend l'allaitement maternel : « la brochure de M. Perrin est pleine d'intérêt. Après le plaidoyer éloquent de Jean-Jacques, en faveur de l'allaitement maternel, il semblait difficile d'aborder le même sujet avec quelque succès : c'est ce qu'a fait cependant M. Perrin ; mais il eut soin pour cela d'éclairer le champ de la physiologie par les lumières du catholicisme ».
+Théodore Perrin est vice-président de la Société de médecine à Lyon. En 1867, il est nommé président de l'Académie des sciences, belles lettres et arts de Lyon, pour la classe sciences.
 Il meurt le 9 novembre 1880 dans sa demeure de Vieu, dans l'Ain.
 </t>
         </is>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Perrin_(m%C3%A9decin)</t>
+          <t>Théodore_Perrin_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Essai sur le développement du sourd-muet, Lyon, 1837, impr. Louis Perrin, 58 p.
 Sur le danger de la suppression du nourrissage maternel, lu à la Société impériale de médecine de Lyon, séance du 29 août 1860, Lyon,  1860, impr. de A. Vingtrinier, lire en ligne sur Gallica 
